--- a/TestData/TestData1.xlsx
+++ b/TestData/TestData1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>mngr511467</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>71365</t>
+  </si>
+  <si>
+    <t>92219</t>
+  </si>
+  <si>
+    <t>27074</t>
+  </si>
+  <si>
+    <t>14959</t>
   </si>
 </sst>
 </file>
@@ -708,7 +717,7 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -746,7 +755,7 @@
         <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -784,7 +793,7 @@
         <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -792,7 +801,7 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>33</v>
@@ -812,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>33</v>
@@ -832,7 +841,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>33</v>
@@ -852,7 +861,7 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -860,7 +869,7 @@
         <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -868,7 +877,7 @@
         <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData1.xlsx
+++ b/TestData/TestData1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
   <si>
     <t>mngr511467</t>
   </si>
@@ -193,6 +193,51 @@
   </si>
   <si>
     <t>14959</t>
+  </si>
+  <si>
+    <t>64554</t>
+  </si>
+  <si>
+    <t>80279</t>
+  </si>
+  <si>
+    <t>84980</t>
+  </si>
+  <si>
+    <t>35344</t>
+  </si>
+  <si>
+    <t>17940</t>
+  </si>
+  <si>
+    <t>26873</t>
+  </si>
+  <si>
+    <t>54532</t>
+  </si>
+  <si>
+    <t>74618</t>
+  </si>
+  <si>
+    <t>69976</t>
+  </si>
+  <si>
+    <t>59455</t>
+  </si>
+  <si>
+    <t>32662</t>
+  </si>
+  <si>
+    <t>79514</t>
+  </si>
+  <si>
+    <t>52880</t>
+  </si>
+  <si>
+    <t>80150</t>
+  </si>
+  <si>
+    <t>94089</t>
   </si>
 </sst>
 </file>
@@ -717,7 +762,7 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -755,7 +800,7 @@
         <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -793,7 +838,7 @@
         <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -801,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>33</v>
@@ -821,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>33</v>
@@ -841,7 +886,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>33</v>
@@ -861,7 +906,7 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -869,7 +914,7 @@
         <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -877,7 +922,7 @@
         <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData1.xlsx
+++ b/TestData/TestData1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>mngr511467</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>94089</t>
+  </si>
+  <si>
+    <t>79157</t>
+  </si>
+  <si>
+    <t>86444</t>
+  </si>
+  <si>
+    <t>45399</t>
   </si>
 </sst>
 </file>
@@ -762,7 +771,7 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -800,7 +809,7 @@
         <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -838,7 +847,7 @@
         <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -846,7 +855,7 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>33</v>
@@ -866,7 +875,7 @@
         <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>33</v>
@@ -886,7 +895,7 @@
         <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>33</v>
@@ -906,7 +915,7 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -914,7 +923,7 @@
         <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -922,7 +931,7 @@
         <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
